--- a/Resources/tets.xlsx
+++ b/Resources/tets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>lastname</t>
   </si>
@@ -58,38 +58,35 @@
     <t>mail</t>
   </si>
   <si>
-    <t>nbn7</t>
-  </si>
-  <si>
-    <t>nbn8</t>
-  </si>
-  <si>
-    <t>nbn9</t>
-  </si>
-  <si>
-    <t>nbn10</t>
-  </si>
-  <si>
-    <t>nbn11</t>
-  </si>
-  <si>
-    <t>nbn12</t>
-  </si>
-  <si>
-    <t>1@gmail.com</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>domain</t>
+    <t>nbn71@gmail.com</t>
+  </si>
+  <si>
+    <t>nbn81@gmail.com</t>
+  </si>
+  <si>
+    <t>nbn91@gmail.com</t>
+  </si>
+  <si>
+    <t>nbn101@gmail.com</t>
+  </si>
+  <si>
+    <t>nbn111@gmail.com</t>
+  </si>
+  <si>
+    <t>nbn121@gmail.com</t>
+  </si>
+  <si>
+    <t>94454ffregf</t>
+  </si>
+  <si>
+    <t>efegfeger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,14 +99,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,19 +118,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,20 +427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,14 +451,11 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -481,15 +465,11 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(C2,D2)</f>
-        <v>nbn71@gmail.com</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -499,15 +479,11 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E7" si="0">CONCATENATE(C3,D3)</f>
-        <v>nbn81@gmail.com</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -517,15 +493,11 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>nbn91@gmail.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>465756757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -535,15 +507,11 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>nbn101@gmail.com</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>564574575675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -553,15 +521,11 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>nbn111@gmail.com</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>57547567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -571,20 +535,12 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>nbn121@gmail.com</v>
+      <c r="D7">
+        <v>3535346457567</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D7" r:id="rId2" display="1@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>